--- a/biology/Médecine/Liste_des_ministres_belges_de_la_Santé_publique/Liste_des_ministres_belges_de_la_Santé_publique.xlsx
+++ b/biology/Médecine/Liste_des_ministres_belges_de_la_Santé_publique/Liste_des_ministres_belges_de_la_Santé_publique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_ministres_belges_de_la_Sant%C3%A9_publique</t>
+          <t>Liste_des_ministres_belges_de_la_Santé_publique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article donne la liste des ministres belges qui ont été successivement responsables du département de la santé au niveau fédéral.
 Pour la liste des ministres actuels de la santé aux différents niveaux de pouvoir en Belgique, voir Ministère de la Santé.
